--- a/Task -2 EXCEL  dataset and solution/Financial Dashboard.xlsx
+++ b/Task -2 EXCEL  dataset and solution/Financial Dashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="P &amp; L" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
     <sheet name="Cost analysis Pie chart" sheetId="4" r:id="rId3"/>
     <sheet name="Revenue column chart" sheetId="3" r:id="rId4"/>
     <sheet name="Target Bar charts" sheetId="5" r:id="rId5"/>
+    <sheet name="Finance Dashboard" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cost analysis Pie chart'!$B$5:$C$5</definedName>
+    <definedName name="_xlchart.0" hidden="1">'Net profit Line Chart'!$B$6:$B$11</definedName>
+    <definedName name="_xlchart.1" hidden="1">'Net profit Line Chart'!$C$5</definedName>
+    <definedName name="_xlchart.2" hidden="1">'Net profit Line Chart'!$C$6:$C$11</definedName>
+    <definedName name="_xlchart.3" hidden="1">'Net profit Line Chart'!$D$5</definedName>
+    <definedName name="_xlchart.4" hidden="1">'Net profit Line Chart'!$D$6:$D$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>P &amp; L statement 2020</t>
   </si>
@@ -125,6 +131,9 @@
   <si>
     <t>Achieved</t>
   </si>
+  <si>
+    <t>Finance Dashboard</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +165,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -499,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -553,6 +570,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,6 +1171,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2650-483B-896A-4DF00A4546D1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1289,6 +1314,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2650-483B-896A-4DF00A4546D1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1331,6 +1361,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2650-483B-896A-4DF00A4546D1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2240,6 +2275,1701 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profit and Profit Margin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net profit Line Chart'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net profit Line Chart'!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net profit Line Chart'!$C$6:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>155075.59355813666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193189.15111382809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182970.15906718749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202514.90428125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182098.951875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215285.21250000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-655C-4D16-81E0-D4E6F6D7DDC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net profit Line Chart'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Profit Margin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net profit Line Chart'!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net profit Line Chart'!$D$6:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-655C-4D16-81E0-D4E6F6D7DDC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2009351935"/>
+        <c:axId val="2009349855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2009351935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2009349855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2009349855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2009351935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expense</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Breakup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost analysis Pie chart'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-693B-4A48-B9E5-DFF8991841A7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="3"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-693B-4A48-B9E5-DFF8991841A7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="14"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-693B-4A48-B9E5-DFF8991841A7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-693B-4A48-B9E5-DFF8991841A7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-693B-4A48-B9E5-DFF8991841A7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost analysis Pie chart'!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cost of Goods Sold</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Advertising</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Payroll</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Interest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost analysis Pie chart'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1188534.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390371.02500000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323869.92499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80847.349999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180115.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-693B-4A48-B9E5-DFF8991841A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Revenue column chart'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Revenue column chart'!$C$6:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Revenue column chart'!$D$6:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1653633.8787718401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986831.8247520002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997534.6356000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2187475.4300000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2439535.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2584736.1081360602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FCD-4716-90AF-E09537B5A1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2098752431"/>
+        <c:axId val="2098747439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2098752431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2098747439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2098747439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2098752431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Target vs Achieved</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13051190453924852"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.83148334486692721"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Target Bar charts'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Target Bar charts'!$B$7:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Advertising</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Payroll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Target Bar charts'!$C$7:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC91-4FE0-A84C-872C36281E85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Target Bar charts'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YTD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Target Bar charts'!$B$7:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Advertising</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Payroll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Target Bar charts'!$D$7:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC91-4FE0-A84C-872C36281E85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2114857199"/>
+        <c:axId val="2114874255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2114857199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114874255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114874255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114857199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2397,6 +4127,163 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3918,6 +5805,2029 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4555,6 +8465,428 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="114300"/>
+          <a:ext cx="8391526" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="6772275"/>
+          <a:ext cx="5248275" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5121" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="876300" y="7038974"/>
+          <a:ext cx="4848225" cy="3476626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Create the financial dashboard:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>As a data analysis intern, you are provided with the Profit and Loss statement of a company for the year 2020.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1) Create a line graph for profit and profit margin for different years.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2) Column chart for historical revenue. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3) Pie chart for expense breakup</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4) Main expenditure item Target vs achieved</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>5) Create chats of other metrics you feel are important.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5869,8 +10201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8054,7 +12386,7 @@
   <dimension ref="B3:D1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9120,7 +13452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -10165,4 +14497,31 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G2:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="7:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="G2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>